--- a/data/codebook_base_file.xlsx
+++ b/data/codebook_base_file.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\DATASETS\documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lisch\3D Objects\prefer\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{583E639B-9402-4269-9D3F-9DD1FA0005E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="5220" windowHeight="765"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Codebook" sheetId="1" r:id="rId1"/>
@@ -764,9 +765,6 @@
     <t>see comment to OPLNIVSOI2021AGG4HBmetNIRWO</t>
   </si>
   <si>
-    <t>Dutch education system includes several different tracks (mbo/vmbo - vocational education, havo - leads to applied higher education (applied higher educational institutions), vwo - leads to academic/theoretical higher education (universities)). Selection into tracks start after primary school. This classification reflects not only educational level but also tracks (e.g. practical bachelor programs (hbo) are dictinguished from theoretical/academic (vwo)). For details about these different educational levels and meaning of each code see Standard Onderwijsindeling 2021 (link will be on our website)</t>
-  </si>
-  <si>
     <t>11 employee, 12 - director-major shareholder (directeur-grootaandeelhouder), 13 - entrepreneur (zelfstandig ondernemer), 14 - self-employed, 15 -contributing family member (meerwerkend gezinslid), 21 - recipient of unemployment benefit, 22 - recipient of social security benefit, 23 - recipient of other social security benefit, 24 - recipient of sicness/AO benefit, 25 - recipient of pension benefit,   26 - studing with income,  31 - studying without income,  32 - other without income</t>
   </si>
   <si>
@@ -933,12 +931,15 @@
   </si>
   <si>
     <t>"Married" here means both marriage and registered partnership. "Unmarried" couple means a couple who are not in marriage and not in registered partnership but CBS inferred that they are partners. This slightly overestimates the number of unmarried couples. Co-habiting with a partner (in an unmarried/unregistered union) is likely more accurately captured in HuisGenotenNetwerkTab based on tax information (e.g. being benefit partners)</t>
+  </si>
+  <si>
+    <t>Dutch education system includes several different tracks (mbo/vmbo - vocational education, havo - leads to applied higher education (applied higher educational institutions), vwo - leads to academic/theoretical higher education (universities)). Selection into tracks start after primary school. This classification reflects not only educational level but also tracks (e.g. practical bachelor programs (hbo) are distinguished from theoretical/academic (vwo)). For details about these different educational levels and meaning of each code see Standard Onderwijsindeling 2021 (https://www.cbs.nl/nl-nl/onze-diensten/methoden/classificaties/onderwijs-en-beroepen/standaard-onderwijsindeling--soi--/standaard-onderwijsindeling-2021)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1419,10 +1420,10 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1451,24 +1452,24 @@
     <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
     <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
     <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Berekening" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Controlecel" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Gekoppelde cel" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Goed" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Invoer" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Kop 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Kop 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Kop 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Kop 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Neutraal" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Notitie" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Ongeldig" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
-    <cellStyle name="Titel" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Totaal" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Uitvoer" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Verklarende tekst" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Waarschuwingstekst" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1745,23 +1746,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A93" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F107" sqref="F107"/>
+    <sheetView tabSelected="1" topLeftCell="C21" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="39" customWidth="1"/>
-    <col min="3" max="3" width="63.28515625" customWidth="1"/>
-    <col min="4" max="4" width="55.42578125" customWidth="1"/>
-    <col min="5" max="5" width="40.42578125" customWidth="1"/>
-    <col min="6" max="6" width="72.85546875" customWidth="1"/>
+    <col min="3" max="3" width="63.26953125" customWidth="1"/>
+    <col min="4" max="4" width="55.453125" customWidth="1"/>
+    <col min="5" max="5" width="40.453125" customWidth="1"/>
+    <col min="6" max="6" width="72.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>143</v>
       </c>
@@ -1778,7 +1779,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1796,7 +1797,7 @@
       </c>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1812,7 +1813,7 @@
       </c>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1828,7 +1829,7 @@
       </c>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1846,7 +1847,7 @@
       </c>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1862,7 +1863,7 @@
       </c>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1870,7 +1871,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2" t="s">
@@ -1878,7 +1879,7 @@
       </c>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="116" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1898,7 +1899,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1916,7 +1917,7 @@
       </c>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1936,7 +1937,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1956,7 +1957,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1974,7 +1975,7 @@
       </c>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1982,7 +1983,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D13" t="s">
         <v>229</v>
@@ -1994,7 +1995,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2012,7 +2013,7 @@
       </c>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2028,7 +2029,7 @@
       </c>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2046,7 +2047,7 @@
       </c>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2064,7 +2065,7 @@
       </c>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2080,7 +2081,7 @@
       </c>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2096,7 +2097,7 @@
       </c>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2116,7 +2117,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2134,7 +2135,7 @@
       </c>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2152,7 +2153,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="133.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="133.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2169,10 +2170,10 @@
         <v>112</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="87" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2192,7 +2193,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2210,7 +2211,7 @@
       </c>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2228,7 +2229,7 @@
       </c>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2244,7 +2245,7 @@
       </c>
       <c r="F27" s="2"/>
     </row>
-    <row r="28" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2252,17 +2253,17 @@
         <v>78</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>120</v>
       </c>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="87" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2280,7 +2281,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2298,7 +2299,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2316,7 +2317,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2334,7 +2335,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2352,7 +2353,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2370,7 +2371,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2388,7 +2389,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2408,7 +2409,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2428,7 +2429,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2444,7 +2445,7 @@
       </c>
       <c r="F38" s="2"/>
     </row>
-    <row r="39" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2459,7 +2460,7 @@
       </c>
       <c r="F39" s="2"/>
     </row>
-    <row r="40" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="58" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2476,10 +2477,10 @@
         <v>118</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2494,7 +2495,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2512,7 +2513,7 @@
       </c>
       <c r="F42" s="2"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2528,7 +2529,7 @@
       </c>
       <c r="F43" s="2"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2544,7 +2545,7 @@
       </c>
       <c r="F44" s="2"/>
     </row>
-    <row r="45" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2562,7 +2563,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2580,7 +2581,7 @@
       </c>
       <c r="F46" s="2"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2598,7 +2599,7 @@
       </c>
       <c r="F47" s="2"/>
     </row>
-    <row r="48" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" ht="87" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2618,7 +2619,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" ht="87" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2638,7 +2639,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2656,7 +2657,7 @@
       </c>
       <c r="F50" s="2"/>
     </row>
-    <row r="51" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2674,7 +2675,7 @@
       </c>
       <c r="F51" s="2"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>51</v>
       </c>
@@ -2690,7 +2691,7 @@
       </c>
       <c r="F52" s="2"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>52</v>
       </c>
@@ -2706,7 +2707,7 @@
       </c>
       <c r="F53" s="2"/>
     </row>
-    <row r="54" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>53</v>
       </c>
@@ -2714,7 +2715,7 @@
         <v>96</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>200</v>
@@ -2724,7 +2725,7 @@
       </c>
       <c r="F54" s="2"/>
     </row>
-    <row r="55" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" ht="58" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>54</v>
       </c>
@@ -2732,7 +2733,7 @@
         <v>97</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>202</v>
@@ -2744,7 +2745,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" ht="87" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>55</v>
       </c>
@@ -2752,7 +2753,7 @@
         <v>98</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>203</v>
@@ -2764,7 +2765,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>56</v>
       </c>
@@ -2772,7 +2773,7 @@
         <v>99</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>205</v>
@@ -2782,7 +2783,7 @@
       </c>
       <c r="F57" s="2"/>
     </row>
-    <row r="58" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>57</v>
       </c>
@@ -2790,7 +2791,7 @@
         <v>100</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>205</v>
@@ -2800,7 +2801,7 @@
       </c>
       <c r="F58" s="2"/>
     </row>
-    <row r="59" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>58</v>
       </c>
@@ -2808,7 +2809,7 @@
         <v>101</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>200</v>
@@ -2820,7 +2821,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>59</v>
       </c>
@@ -2828,7 +2829,7 @@
         <v>102</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>207</v>
@@ -2838,7 +2839,7 @@
       </c>
       <c r="F60" s="2"/>
     </row>
-    <row r="61" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" ht="58" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>60</v>
       </c>
@@ -2846,7 +2847,7 @@
         <v>103</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>208</v>
@@ -2856,7 +2857,7 @@
       </c>
       <c r="F61" s="2"/>
     </row>
-    <row r="62" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>61</v>
       </c>
@@ -2872,7 +2873,7 @@
       </c>
       <c r="F62" s="2"/>
     </row>
-    <row r="63" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>62</v>
       </c>
@@ -2888,7 +2889,7 @@
       </c>
       <c r="F63" s="2"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>63</v>
       </c>
@@ -2896,7 +2897,7 @@
         <v>28</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>171</v>
@@ -2906,7 +2907,7 @@
       </c>
       <c r="F64" s="2"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>64</v>
       </c>
@@ -2914,7 +2915,7 @@
         <v>29</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>171</v>
@@ -2924,7 +2925,7 @@
       </c>
       <c r="F65" s="2"/>
     </row>
-    <row r="66" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>65</v>
       </c>
@@ -2942,7 +2943,7 @@
       </c>
       <c r="F66" s="2"/>
     </row>
-    <row r="67" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>66</v>
       </c>
@@ -2960,7 +2961,7 @@
       </c>
       <c r="F67" s="2"/>
     </row>
-    <row r="68" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" ht="87" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>67</v>
       </c>
@@ -2968,7 +2969,7 @@
         <v>32</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>161</v>
@@ -2980,7 +2981,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>68</v>
       </c>
@@ -2988,7 +2989,7 @@
         <v>33</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>114</v>
@@ -2998,7 +2999,7 @@
       </c>
       <c r="F69" s="2"/>
     </row>
-    <row r="70" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>69</v>
       </c>
@@ -3016,7 +3017,7 @@
       </c>
       <c r="F70" s="2"/>
     </row>
-    <row r="71" spans="1:6" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" ht="94.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>70</v>
       </c>
@@ -3024,7 +3025,7 @@
         <v>35</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>162</v>
@@ -3034,7 +3035,7 @@
       </c>
       <c r="F71" s="2"/>
     </row>
-    <row r="72" spans="1:6" ht="125.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" ht="125.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>71</v>
       </c>
@@ -3042,7 +3043,7 @@
         <v>36</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>163</v>
@@ -3052,7 +3053,7 @@
       </c>
       <c r="F72" s="2"/>
     </row>
-    <row r="73" spans="1:6" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" ht="79.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>72</v>
       </c>
@@ -3060,7 +3061,7 @@
         <v>37</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>164</v>
@@ -3070,7 +3071,7 @@
       </c>
       <c r="F73" s="2"/>
     </row>
-    <row r="74" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>73</v>
       </c>
@@ -3090,7 +3091,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>74</v>
       </c>
@@ -3108,7 +3109,7 @@
       </c>
       <c r="F75" s="2"/>
     </row>
-    <row r="76" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" ht="58" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>75</v>
       </c>
@@ -3116,7 +3117,7 @@
         <v>40</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>168</v>
@@ -3126,7 +3127,7 @@
       </c>
       <c r="F76" s="2"/>
     </row>
-    <row r="77" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>76</v>
       </c>
@@ -3134,7 +3135,7 @@
         <v>41</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D77" s="3" t="s">
         <v>172</v>
@@ -3146,7 +3147,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>77</v>
       </c>
@@ -3154,7 +3155,7 @@
         <v>42</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D78" s="3" t="s">
         <v>172</v>
@@ -3166,7 +3167,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>78</v>
       </c>
@@ -3174,7 +3175,7 @@
         <v>43</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>174</v>
@@ -3184,7 +3185,7 @@
       </c>
       <c r="F79" s="2"/>
     </row>
-    <row r="80" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>79</v>
       </c>
@@ -3192,7 +3193,7 @@
         <v>222</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>174</v>
@@ -3202,7 +3203,7 @@
       </c>
       <c r="F80" s="2"/>
     </row>
-    <row r="81" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>80</v>
       </c>
@@ -3210,7 +3211,7 @@
         <v>223</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>174</v>
@@ -3220,7 +3221,7 @@
       </c>
       <c r="F81" s="2"/>
     </row>
-    <row r="82" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>81</v>
       </c>
@@ -3228,7 +3229,7 @@
         <v>224</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>174</v>
@@ -3238,7 +3239,7 @@
       </c>
       <c r="F82" s="2"/>
     </row>
-    <row r="83" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>82</v>
       </c>
@@ -3246,7 +3247,7 @@
         <v>44</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>174</v>
@@ -3258,7 +3259,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>83</v>
       </c>
@@ -3266,7 +3267,7 @@
         <v>45</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>174</v>
@@ -3276,7 +3277,7 @@
       </c>
       <c r="F84" s="2"/>
     </row>
-    <row r="85" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>84</v>
       </c>
@@ -3284,7 +3285,7 @@
         <v>46</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>174</v>
@@ -3296,7 +3297,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>85</v>
       </c>
@@ -3304,7 +3305,7 @@
         <v>47</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>174</v>
@@ -3316,7 +3317,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>86</v>
       </c>
@@ -3324,7 +3325,7 @@
         <v>48</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>174</v>
@@ -3334,7 +3335,7 @@
       </c>
       <c r="F87" s="2"/>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>87</v>
       </c>
@@ -3342,7 +3343,7 @@
         <v>49</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>174</v>
@@ -3352,7 +3353,7 @@
       </c>
       <c r="F88" s="2"/>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>88</v>
       </c>
@@ -3360,7 +3361,7 @@
         <v>50</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>174</v>
@@ -3370,7 +3371,7 @@
       </c>
       <c r="F89" s="2"/>
     </row>
-    <row r="90" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>89</v>
       </c>
@@ -3378,7 +3379,7 @@
         <v>51</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>174</v>
@@ -3390,7 +3391,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" ht="58" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>90</v>
       </c>
@@ -3398,7 +3399,7 @@
         <v>79</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" s="2" t="s">
@@ -3408,7 +3409,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>91</v>
       </c>
@@ -3416,7 +3417,7 @@
         <v>80</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" s="2" t="s">
@@ -3424,7 +3425,7 @@
       </c>
       <c r="F92" s="2"/>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>92</v>
       </c>
@@ -3432,7 +3433,7 @@
         <v>81</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" s="2" t="s">
@@ -3440,7 +3441,7 @@
       </c>
       <c r="F93" s="2"/>
     </row>
-    <row r="94" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>93</v>
       </c>
@@ -3448,7 +3449,7 @@
         <v>82</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" s="2" t="s">
@@ -3456,7 +3457,7 @@
       </c>
       <c r="F94" s="2"/>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>94</v>
       </c>
@@ -3464,7 +3465,7 @@
         <v>83</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D95" s="2"/>
       <c r="E95" s="2" t="s">
@@ -3472,7 +3473,7 @@
       </c>
       <c r="F95" s="2"/>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>95</v>
       </c>
@@ -3480,7 +3481,7 @@
         <v>84</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D96" s="2"/>
       <c r="E96" s="2" t="s">
@@ -3488,7 +3489,7 @@
       </c>
       <c r="F96" s="2"/>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>96</v>
       </c>
@@ -3496,7 +3497,7 @@
         <v>85</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D97" s="2"/>
       <c r="E97" s="2" t="s">
@@ -3504,7 +3505,7 @@
       </c>
       <c r="F97" s="2"/>
     </row>
-    <row r="98" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>97</v>
       </c>
@@ -3512,14 +3513,14 @@
         <v>86</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>123</v>
       </c>
       <c r="F98" s="2"/>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>98</v>
       </c>
@@ -3527,7 +3528,7 @@
         <v>87</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D99" s="2"/>
       <c r="E99" s="2" t="s">
@@ -3535,7 +3536,7 @@
       </c>
       <c r="F99" s="2"/>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>99</v>
       </c>
@@ -3543,7 +3544,7 @@
         <v>88</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D100" s="2"/>
       <c r="E100" s="2" t="s">
@@ -3551,7 +3552,7 @@
       </c>
       <c r="F100" s="2"/>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>100</v>
       </c>
@@ -3559,7 +3560,7 @@
         <v>89</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D101" s="2"/>
       <c r="E101" s="2" t="s">
@@ -3567,7 +3568,7 @@
       </c>
       <c r="F101" s="2"/>
     </row>
-    <row r="102" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>101</v>
       </c>
@@ -3575,17 +3576,17 @@
         <v>90</v>
       </c>
       <c r="C102" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="D102" s="3" t="s">
         <v>287</v>
-      </c>
-      <c r="D102" s="3" t="s">
-        <v>288</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>225</v>
       </c>
       <c r="F102" s="2"/>
     </row>
-    <row r="103" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>102</v>
       </c>
@@ -3593,7 +3594,7 @@
         <v>91</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D103" s="2"/>
       <c r="E103" s="2" t="s">
@@ -3603,7 +3604,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="104" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>103</v>
       </c>
@@ -3621,7 +3622,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="105" spans="1:6" ht="99" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" ht="99" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>104</v>
       </c>
@@ -3629,19 +3630,19 @@
         <v>92</v>
       </c>
       <c r="C105" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="D105" s="2" t="s">
         <v>277</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>278</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>111</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>105</v>
       </c>
@@ -3649,7 +3650,7 @@
         <v>93</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D106" s="2"/>
       <c r="E106" s="2" t="s">
@@ -3657,7 +3658,7 @@
       </c>
       <c r="F106" s="2"/>
     </row>
-    <row r="107" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>106</v>
       </c>
@@ -3665,17 +3666,17 @@
         <v>94</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D107" s="2"/>
       <c r="E107" s="2" t="s">
         <v>111</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" ht="58" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>107</v>
       </c>
@@ -3683,7 +3684,7 @@
         <v>95</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D108" s="2"/>
       <c r="E108" s="2" t="s">
@@ -3693,67 +3694,67 @@
         <v>221</v>
       </c>
     </row>
-    <row r="117" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C117" s="2"/>
     </row>
-    <row r="118" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C118" s="2"/>
     </row>
-    <row r="119" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C119" s="2"/>
     </row>
-    <row r="120" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C120" s="2"/>
     </row>
-    <row r="121" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C121" s="2"/>
     </row>
-    <row r="122" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C122" s="2"/>
     </row>
-    <row r="123" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C123" s="2"/>
     </row>
-    <row r="124" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C124" s="2"/>
     </row>
-    <row r="125" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C125" s="2"/>
     </row>
-    <row r="126" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C126" s="2"/>
     </row>
-    <row r="127" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C127" s="2"/>
     </row>
-    <row r="128" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C128" s="2"/>
     </row>
-    <row r="129" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C129" s="2"/>
     </row>
-    <row r="130" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C130" s="2"/>
     </row>
-    <row r="131" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C131" s="2"/>
     </row>
-    <row r="132" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C132" s="2"/>
     </row>
-    <row r="133" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C133" s="2"/>
     </row>
-    <row r="134" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C134" s="2"/>
     </row>
-    <row r="135" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C135" s="2"/>
     </row>
-    <row r="136" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C136" s="2"/>
     </row>
-    <row r="137" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C137" s="2"/>
     </row>
   </sheetData>

--- a/data/codebook_base_file.xlsx
+++ b/data/codebook_base_file.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lisch\3D Objects\prefer\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{583E639B-9402-4269-9D3F-9DD1FA0005E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44FB01AC-6256-4CEE-ACC2-35E0E8A616F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -933,7 +933,7 @@
     <t>"Married" here means both marriage and registered partnership. "Unmarried" couple means a couple who are not in marriage and not in registered partnership but CBS inferred that they are partners. This slightly overestimates the number of unmarried couples. Co-habiting with a partner (in an unmarried/unregistered union) is likely more accurately captured in HuisGenotenNetwerkTab based on tax information (e.g. being benefit partners)</t>
   </si>
   <si>
-    <t>Dutch education system includes several different tracks (mbo/vmbo - vocational education, havo - leads to applied higher education (applied higher educational institutions), vwo - leads to academic/theoretical higher education (universities)). Selection into tracks start after primary school. This classification reflects not only educational level but also tracks (e.g. practical bachelor programs (hbo) are distinguished from theoretical/academic (vwo)). For details about these different educational levels and meaning of each code see Standard Onderwijsindeling 2021 (https://www.cbs.nl/nl-nl/onze-diensten/methoden/classificaties/onderwijs-en-beroepen/standaard-onderwijsindeling--soi--/standaard-onderwijsindeling-2021)</t>
+    <t>Dutch education system includes several different tracks (mbo/vmbo - vocational education, havo - leads to applied higher education (applied higher educational institutions), vwo - leads to academic/theoretical higher education (universities)). Selection into tracks start after primary school. This classification reflects not only educational level but also tracks (e.g. practical bachelor programs (hbo) are distinguished from theoretical/academic (vwo)). For details about these different educational levels and meaning of each code see Standard Onderwijsindeling 2021 (https://www.cbs.nl/nl-nl/onze-diensten/methoden/classificaties/onderwijs-en-beroepen/standaard-onderwijsindeling--soi--/standaard-onderwijsindeling-2021). Brief description of SOI 2021 classification see here https://www.cbs.nl/nl-nl/onze-diensten/methoden/begrippen/onderwijsniveau-soi-2021</t>
   </si>
 </sst>
 </file>
@@ -1749,8 +1749,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C21" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" topLeftCell="D21" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
